--- a/Models.xlsx
+++ b/Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Work\Desktop\bankv2\back\Bankv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528AFB3-AA4A-445E-B54E-63165382CA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA871E9F-8C31-43C6-82BA-D3B5FD855487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18525" yWindow="3705" windowWidth="18000" windowHeight="9360" xr2:uid="{0C4655BD-FD57-4FCB-842E-89F6E826D1F5}"/>
+    <workbookView xWindow="-18405" yWindow="3015" windowWidth="17655" windowHeight="9915" xr2:uid="{0C4655BD-FD57-4FCB-842E-89F6E826D1F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>type</t>
   </si>
@@ -118,15 +118,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>List&lt;Account&gt;</t>
-  </si>
-  <si>
-    <t>accounts</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -166,7 +157,7 @@
     <t>infoid</t>
   </si>
   <si>
-    <t>custid</t>
+    <t>NEWUSERDTO</t>
   </si>
 </sst>
 </file>
@@ -329,23 +320,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,15 +648,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A55677-7B87-4626-9C4F-ACBB09BA78F6}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M3:M13"/>
+      <selection activeCell="M4" sqref="M4:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
@@ -676,7 +664,7 @@
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -690,188 +678,224 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>43</v>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="J10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -879,7 +903,37 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -903,42 +957,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="11" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
